--- a/data/covid19japan_beds/000971119.xlsx
+++ b/data/covid19japan_beds/000971119.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="公表資料" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="eee">#REF!</definedName>
     <definedName name="g">#REF!</definedName>
     <definedName name="h">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">公表資料!$A$1:$AI$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">公表資料!$A$1:$AI$74</definedName>
     <definedName name="qqq">#REF!</definedName>
     <definedName name="rrr">#REF!</definedName>
     <definedName name="w">#REF!</definedName>
@@ -69,9 +69,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
-  <si>
-    <t>令和4年7月29日公表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
+  <si>
+    <t>令和4年7月29日公表
+(8月3日修正)</t>
   </si>
   <si>
     <t>都道府県名</t>
@@ -1151,6 +1152,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>注17：千葉県の確保定員数について修正（8月3日修正）</t>
+    <rPh sb="4" eb="6">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>新型コロナウイルス感染症患者の療養状況、病床数等に関する調査結果（7月27日0時時点）</t>
   </si>
   <si>
@@ -1224,8 +1232,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0&quot;%&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\(aaa\)"/>
+    <numFmt numFmtId="177" formatCode="0&quot;%&quot;"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1287,7 +1296,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1749,7 +1758,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2031,10 +2040,10 @@
     <xf numFmtId="38" fontId="17" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,10 +2082,10 @@
     <xf numFmtId="38" fontId="17" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,7 +2578,7 @@
   </sheetPr>
   <dimension ref="A1:AJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2597,7 +2606,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2979,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="96">
         <v>1435</v>
@@ -3006,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" s="96">
         <v>90</v>
@@ -3027,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W9" s="103">
         <v>1085</v>
@@ -3045,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC9" s="103">
         <v>56</v>
@@ -3086,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="96">
         <v>446</v>
@@ -3113,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P10" s="96">
         <v>31</v>
@@ -3134,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W10" s="103">
         <v>660</v>
@@ -3152,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC10" s="103">
         <v>0</v>
@@ -3161,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF10" s="102">
         <v>7074</v>
@@ -3193,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" s="96">
         <v>325</v>
@@ -3220,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P11" s="96">
         <v>31</v>
@@ -3241,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W11" s="103">
         <v>280</v>
@@ -3259,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC11" s="103">
         <v>0</v>
@@ -3268,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF11" s="102">
         <v>6875</v>
@@ -3300,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" s="96">
         <v>538</v>
@@ -3327,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P12" s="96">
         <v>55</v>
@@ -3348,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W12" s="103">
         <v>2060</v>
@@ -3366,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC12" s="103">
         <v>0</v>
@@ -3375,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF12" s="102">
         <v>9555</v>
@@ -3407,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="96">
         <v>289</v>
@@ -3434,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P13" s="96">
         <v>24</v>
@@ -3455,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W13" s="103">
         <v>415</v>
@@ -3473,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="103">
         <v>0</v>
@@ -3482,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF13" s="102">
         <v>4917</v>
@@ -3514,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G14" s="96">
         <v>246</v>
@@ -3541,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P14" s="96">
         <v>26</v>
@@ -3562,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W14" s="103">
         <v>348</v>
@@ -3580,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC14" s="103">
         <v>0</v>
@@ -3589,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF14" s="102">
         <v>5189</v>
@@ -3621,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="96">
         <v>728</v>
@@ -3648,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P15" s="96">
         <v>45</v>
@@ -3669,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W15" s="103">
         <v>1547</v>
@@ -3687,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC15" s="103">
         <v>16</v>
@@ -3728,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="96">
         <v>877</v>
@@ -3755,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="96">
         <v>30</v>
@@ -3776,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W16" s="103">
         <v>1041</v>
@@ -3794,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC16" s="103">
         <v>0</v>
@@ -3835,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="96">
         <v>457</v>
@@ -3862,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="96">
         <v>32</v>
@@ -3883,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W17" s="103">
         <v>755</v>
@@ -3901,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC17" s="103">
         <v>0</v>
@@ -3910,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF17" s="102">
         <v>14125</v>
@@ -3942,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="96">
         <v>643</v>
@@ -3969,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="96">
         <v>13</v>
@@ -3990,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W18" s="103">
         <v>1727</v>
@@ -4008,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC18" s="103">
         <v>6</v>
@@ -4049,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="96">
         <v>1508</v>
@@ -4076,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="96">
         <v>69</v>
@@ -4097,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W19" s="103">
         <v>1924</v>
@@ -4115,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC19" s="103">
         <v>8</v>
@@ -4156,7 +4165,7 @@
         <v>59</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="96">
         <v>1498</v>
@@ -4183,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="96">
         <v>128</v>
@@ -4204,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W20" s="103">
         <v>1956</v>
@@ -4222,16 +4231,16 @@
         <v>59</v>
       </c>
       <c r="AB20" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC20" s="103">
         <v>161</v>
       </c>
       <c r="AD20" s="103">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AE20" s="100">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF20" s="102">
         <v>52685</v>
@@ -4263,7 +4272,7 @@
         <v>102</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="96">
         <v>6539</v>
@@ -4290,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P21" s="96">
         <v>828</v>
@@ -4311,7 +4320,7 @@
         <v>208</v>
       </c>
       <c r="V21" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W21" s="103">
         <v>8450</v>
@@ -4329,7 +4338,7 @@
         <v>636</v>
       </c>
       <c r="AB21" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC21" s="103">
         <v>1561</v>
@@ -4370,7 +4379,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="96">
         <v>2036</v>
@@ -4397,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P22" s="96">
         <v>126</v>
@@ -4418,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W22" s="103">
         <v>2421</v>
@@ -4436,7 +4445,7 @@
         <v>42</v>
       </c>
       <c r="AB22" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC22" s="103">
         <v>78</v>
@@ -4477,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" s="96">
         <v>577</v>
@@ -4504,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P23" s="96">
         <v>112</v>
@@ -4525,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W23" s="103">
         <v>357</v>
@@ -4543,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC23" s="103">
         <v>10</v>
@@ -4584,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G24" s="96">
         <v>230</v>
@@ -4611,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P24" s="96">
         <v>14</v>
@@ -4632,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W24" s="103">
         <v>760</v>
@@ -4650,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC24" s="103">
         <v>0</v>
@@ -4659,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF24" s="102">
         <v>8425</v>
@@ -4691,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="96">
         <v>412</v>
@@ -4718,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P25" s="96">
         <v>37</v>
@@ -4739,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W25" s="103">
         <v>630</v>
@@ -4757,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC25" s="103">
         <v>0</v>
@@ -4766,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF25" s="102">
         <v>7871</v>
@@ -4798,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="96">
         <v>287</v>
@@ -4825,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P26" s="96">
         <v>24</v>
@@ -4846,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W26" s="103">
         <v>425</v>
@@ -4864,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC26" s="103">
         <v>0</v>
@@ -4905,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="96">
         <v>399</v>
@@ -4932,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P27" s="96">
         <v>24</v>
@@ -4953,7 +4962,7 @@
         <v>290</v>
       </c>
       <c r="V27" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W27" s="103">
         <v>1135</v>
@@ -4971,7 +4980,7 @@
         <v>290</v>
       </c>
       <c r="AB27" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC27" s="103">
         <v>639</v>
@@ -5012,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="96">
         <v>410</v>
@@ -5039,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P28" s="96">
         <v>37</v>
@@ -5060,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W28" s="103">
         <v>658</v>
@@ -5078,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC28" s="103">
         <v>0</v>
@@ -5087,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF28" s="102">
         <v>7976</v>
@@ -5119,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G29" s="96">
         <v>897</v>
@@ -5146,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P29" s="96">
         <v>59</v>
@@ -5167,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W29" s="103">
         <v>1932</v>
@@ -5185,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC29" s="103">
         <v>4</v>
@@ -5226,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="96">
         <v>642</v>
@@ -5253,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P30" s="96">
         <v>39</v>
@@ -5274,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W30" s="103">
         <v>894</v>
@@ -5292,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC30" s="103">
         <v>0</v>
@@ -5333,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="96">
         <v>1723</v>
@@ -5360,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P31" s="96">
         <v>172</v>
@@ -5381,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W31" s="103">
         <v>2224</v>
@@ -5399,16 +5408,16 @@
         <v>0</v>
       </c>
       <c r="AB31" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="103">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="100" t="s">
         <v>104</v>
-      </c>
-      <c r="AC31" s="103">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="103">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="100" t="s">
-        <v>103</v>
       </c>
       <c r="AF31" s="102">
         <v>75298</v>
@@ -5440,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="96">
         <v>487</v>
@@ -5467,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P32" s="96">
         <v>50</v>
@@ -5488,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W32" s="103">
         <v>496</v>
@@ -5506,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC32" s="103">
         <v>0</v>
@@ -5547,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="96">
         <v>461</v>
@@ -5574,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P33" s="96">
         <v>52</v>
@@ -5595,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W33" s="103">
         <v>630</v>
@@ -5613,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC33" s="103">
         <v>0</v>
@@ -5654,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="96">
         <v>961</v>
@@ -5681,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P34" s="96">
         <v>175</v>
@@ -5702,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W34" s="103">
         <v>1126</v>
@@ -5720,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC34" s="103">
         <v>110</v>
@@ -5761,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" s="96">
         <v>3607</v>
@@ -5788,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P35" s="96">
         <v>1165</v>
@@ -5809,7 +5818,7 @@
         <v>44</v>
       </c>
       <c r="V35" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W35" s="103">
         <v>8275</v>
@@ -5827,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="AB35" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC35" s="103">
         <v>196</v>
@@ -5868,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G36" s="96">
         <v>1629</v>
@@ -5895,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P36" s="96">
         <v>142</v>
@@ -5916,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W36" s="103">
         <v>2411</v>
@@ -5934,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC36" s="103">
         <v>0</v>
@@ -5943,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF36" s="102">
         <v>52315</v>
@@ -5975,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="96">
         <v>533</v>
@@ -6002,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P37" s="96">
         <v>36</v>
@@ -6023,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W37" s="103">
         <v>969</v>
@@ -6041,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC37" s="103">
         <v>0</v>
@@ -6050,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF37" s="102">
         <v>0</v>
@@ -6082,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G38" s="96">
         <v>529</v>
@@ -6109,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P38" s="96">
         <v>26</v>
@@ -6130,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W38" s="103">
         <v>178</v>
@@ -6148,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC38" s="103">
         <v>178</v>
@@ -6189,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G39" s="96">
         <v>257</v>
@@ -6216,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P39" s="96">
         <v>30</v>
@@ -6237,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W39" s="103">
         <v>459</v>
@@ -6255,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC39" s="103">
         <v>5</v>
@@ -6296,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" s="96">
         <v>348</v>
@@ -6323,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P40" s="96">
         <v>8</v>
@@ -6344,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W40" s="103">
         <v>133</v>
@@ -6362,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC40" s="103">
         <v>0</v>
@@ -6371,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF40" s="102">
         <v>6049</v>
@@ -6403,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="96">
         <v>525</v>
@@ -6430,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P41" s="96">
         <v>37</v>
@@ -6451,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W41" s="103">
         <v>629</v>
@@ -6469,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC41" s="103">
         <v>0</v>
@@ -6510,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42" s="96">
         <v>524</v>
@@ -6537,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P42" s="96">
         <v>37</v>
@@ -6558,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W42" s="103">
         <v>1760</v>
@@ -6576,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="AB42" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC42" s="103">
         <v>19</v>
@@ -6617,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G43" s="96">
         <v>449</v>
@@ -6644,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P43" s="96">
         <v>23</v>
@@ -6665,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W43" s="103">
         <v>671</v>
@@ -6683,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC43" s="103">
         <v>0</v>
@@ -6692,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF43" s="102">
         <v>9158</v>
@@ -6724,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G44" s="96">
         <v>175</v>
@@ -6751,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P44" s="96">
         <v>16</v>
@@ -6772,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W44" s="103">
         <v>500</v>
@@ -6790,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC44" s="103">
         <v>0</v>
@@ -6831,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" s="96">
         <v>271</v>
@@ -6858,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P45" s="96">
         <v>30</v>
@@ -6879,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W45" s="103">
         <v>474</v>
@@ -6897,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC45" s="103">
         <v>0</v>
@@ -6906,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF45" s="102">
         <v>5440</v>
@@ -6938,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G46" s="96">
         <v>371</v>
@@ -6965,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P46" s="96">
         <v>22</v>
@@ -6986,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W46" s="103">
         <v>263</v>
@@ -7004,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC46" s="103">
         <v>67</v>
@@ -7045,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="96">
         <v>271</v>
@@ -7072,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P47" s="96">
         <v>24</v>
@@ -7093,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W47" s="103">
         <v>271</v>
@@ -7111,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC47" s="103">
         <v>0</v>
@@ -7120,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF47" s="102">
         <v>5599</v>
@@ -7152,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G48" s="96">
         <v>1725</v>
@@ -7179,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P48" s="96">
         <v>217</v>
@@ -7200,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W48" s="103">
         <v>2432</v>
@@ -7218,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC48" s="103">
         <v>19</v>
@@ -7259,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G49" s="96">
         <v>502</v>
@@ -7286,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P49" s="96">
         <v>8</v>
@@ -7307,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W49" s="103">
         <v>615</v>
@@ -7325,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC49" s="103">
         <v>50</v>
@@ -7366,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G50" s="96">
         <v>433</v>
@@ -7393,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P50" s="96">
         <v>38</v>
@@ -7414,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W50" s="103">
         <v>900</v>
@@ -7432,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC50" s="103">
         <v>0</v>
@@ -7473,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G51" s="96">
         <v>855</v>
@@ -7500,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P51" s="96">
         <v>68</v>
@@ -7521,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W51" s="103">
         <v>1226</v>
@@ -7539,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC51" s="103">
         <v>0</v>
@@ -7548,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF51" s="102">
         <v>25368</v>
@@ -7580,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G52" s="96">
         <v>413</v>
@@ -7607,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P52" s="96">
         <v>34</v>
@@ -7628,7 +7637,7 @@
         <v>84</v>
       </c>
       <c r="V52" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W52" s="103">
         <v>1270</v>
@@ -7646,7 +7655,7 @@
         <v>84</v>
       </c>
       <c r="AB52" s="97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC52" s="103">
         <v>175</v>
@@ -7687,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G53" s="96">
         <v>306</v>
@@ -7714,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P53" s="96">
         <v>15</v>
@@ -7735,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W53" s="103">
         <v>500</v>
@@ -7753,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC53" s="103">
         <v>0</v>
@@ -7762,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF53" s="102">
         <v>11445</v>
@@ -7794,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G54" s="96">
         <v>565</v>
@@ -7821,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P54" s="96">
         <v>34</v>
@@ -7842,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W54" s="103">
         <v>1812</v>
@@ -7860,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC54" s="103">
         <v>0</v>
@@ -7901,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G55" s="110">
         <v>853</v>
@@ -7928,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P55" s="110">
         <v>64</v>
@@ -7949,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W55" s="116">
         <v>2515</v>
@@ -7967,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC55" s="116">
         <v>100</v>
@@ -8064,7 +8073,7 @@
         <v>3458</v>
       </c>
       <c r="AD56" s="121">
-        <v>4583</v>
+        <v>4593</v>
       </c>
       <c r="AE56" s="122"/>
       <c r="AF56" s="121">
@@ -8726,7 +8735,9 @@
       <c r="AH73" s="133"/>
     </row>
     <row r="74" spans="1:34" s="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="132"/>
+      <c r="A74" s="132" t="s">
+        <v>99</v>
+      </c>
       <c r="B74" s="132"/>
       <c r="C74" s="132"/>
       <c r="D74" s="132"/>
